--- a/data/trans_camb/P32C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 5,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,01; -1,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 3,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 3,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,56; -1,24</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>18,82%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>43,21%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,49; 313,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,07; 241,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-2,63</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,94; 1,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 3,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; -1,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 0,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 2,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; -0,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-38,65%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,77; 165,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,42; 277,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,59; 129,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,94; 287,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 2,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 4,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 0,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 1,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 3,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>87,98%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>352,51%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>452,99%</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 4,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; -0,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 1,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 1,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 1,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 2,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,24; -0,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 0,72</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,42%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,04; 461,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 195,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,53; 298,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,26; 127,02</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 6,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,77; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,3; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; 18,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,47; 2,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; 0,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 2,28</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,71%</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 1,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 3,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 5,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 0,48</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 0,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 3,35</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,17%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,44%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,59%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,73%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,99%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,63%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,27; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 1,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 2,19</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 2,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 5,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 1,37</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 1,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 2,11</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,31%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,71%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,0%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,54%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,35; 169,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,72; 234,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,68; 205,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,99; 166,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,18; 194,97</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,95; 226,26</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 2,31</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 0,75</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 1,09</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 0,95</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 1,31</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; -0,42</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 1,18</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 0,65</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 0,51</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,91%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,32%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,49%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,94%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,48%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,08%</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,43; 324,5</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,38; 132,04</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 207,65</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,44; 143,43</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,37; 108,7</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 127,35</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,02</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 0,55</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 0,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 0,01</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 0,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,2</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,47</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 0,28</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,25</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,17%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,07%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,91%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,64%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,2%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,44; 67,96</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,39; 39,83</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,52; 9,77</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 37,17</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,14; 107,51</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,72; 225,6</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,18; 36,61</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,12; 23,35</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,76; 21,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 7,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 1,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 5,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,59; 470,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,02; 350,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,27</t>
+          <t>0,03; 4,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,14</t>
+          <t>0,2; 3,06</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>352,51%</t>
+          <t>335,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>452,99%</t>
+          <t>438,56%</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,66</t>
+          <t>-3,25; 2,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,19</t>
+          <t>-4,23; 1,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,03</t>
+          <t>-5,6; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,1</t>
+          <t>-4,14; 1,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,85</t>
+          <t>-2,7; 1,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,72</t>
+          <t>-3,16; 0,72</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>72,52%</t>
+          <t>-14,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-46,48%</t>
+          <t>-47,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-53,87%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-35,51%</t>
+          <t>-34,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>-27,51%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-46,42%</t>
+          <t>-46,73%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 461,72</t>
+          <t>-83,46; 379,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 195,32</t>
+          <t>-100,0; 181,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 298,14</t>
+          <t>-85,62; 276,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-88,26; 127,02</t>
+          <t>-88,52; 126,44</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 18,21</t>
+          <t>-6,93; 18,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,28</t>
+          <t>-4,58; 2,31</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-38,71%</t>
+          <t>-37,45%</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,05</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,24</t>
+          <t>-1,35; 3,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 5,03</t>
+          <t>-1,84; 4,93</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,35</t>
+          <t>-0,6; 3,26</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>152,59%</t>
+          <t>149,93%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>112,63%</t>
+          <t>108,85%</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-59,27; —</t>
+          <t>-59,73; —</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,23</t>
+          <t>-2,85; 2,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,08</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,11</t>
+          <t>-2,25; 1,64</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,71%</t>
+          <t>-8,72%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>-3,25%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-75,68; 205,64</t>
+          <t>-76,04; 199,27</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-67,95; 226,26</t>
+          <t>-77,02; 174,33</t>
         </is>
       </c>
     </row>
@@ -2154,37 +2154,37 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
           <t>-0,46</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,65</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,09</t>
+          <t>-1,82; 1,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,51</t>
+          <t>-1,75; 0,56</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-32,32%</t>
+          <t>-31,18%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-49,08%</t>
+          <t>-47,68%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 207,65</t>
+          <t>-100,0; 211,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 127,35</t>
+          <t>-100,0; 133,44</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,11</t>
+          <t>-1,48; 0,03</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,2</t>
+          <t>-1,11; 0,94</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,25</t>
+          <t>-1,12; 0,17</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-34,17%</t>
+          <t>-36,48%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-26,2%</t>
+          <t>-31,23%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-61,52; 9,77</t>
+          <t>-62,66; 5,69</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-67,72; 225,6</t>
+          <t>-73,96; 179,89</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 21,94</t>
+          <t>-58,09; 13,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 7,9</t>
+          <t>-2,44; 7,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 5,48</t>
+          <t>-4,21; 5,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -1,33</t>
+          <t>-9,17; -1,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 1,86</t>
+          <t>-4,94; 1,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,96</t>
+          <t>-3,28; 4,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 0,0</t>
+          <t>-6,42; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 5,01</t>
+          <t>-2,37; 4,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,48</t>
+          <t>-2,82; 3,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; -1,24</t>
+          <t>-6,58; -1,29</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 470,48</t>
+          <t>-55,88; 451,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,49; 313,84</t>
+          <t>-73,28; 354,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 350,06</t>
+          <t>-53,94; 353,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,07; 241,48</t>
+          <t>-68,13; 303,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,32</t>
+          <t>-3,92; 1,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,1</t>
+          <t>-2,4; 3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; -1,2</t>
+          <t>-5,53; -0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,81</t>
+          <t>-3,39; 0,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,31</t>
+          <t>-2,16; 2,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; -0,68</t>
+          <t>-4,16; -0,7</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,77; 165,07</t>
+          <t>-86,12; 129,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,42; 277,24</t>
+          <t>-69,83; 320,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-89,59; 129,03</t>
+          <t>-89,67; 97,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,94; 287,27</t>
+          <t>-70,28; 293,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 0,0</t>
+          <t>-2,47; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,25</t>
+          <t>-1,08; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,09</t>
+          <t>-0,22; 3,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,0</t>
+          <t>-1,79; 0,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,77</t>
+          <t>-0,55; 1,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,06</t>
+          <t>0,22; 2,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,71</t>
+          <t>-3,12; 2,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; -0,81</t>
+          <t>-5,69; -1,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,1</t>
+          <t>-4,26; 1,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 0,0</t>
+          <t>-5,48; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,0</t>
+          <t>-5,61; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,11</t>
+          <t>-4,74; 1,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,61</t>
+          <t>-2,66; 1,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,24; -0,69</t>
+          <t>-4,17; -0,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,72</t>
+          <t>-3,23; 0,63</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-83,46; 379,64</t>
+          <t>-84,11; 416,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 181,61</t>
+          <t>-100,0; 214,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-85,62; 276,89</t>
+          <t>-85,31; 262,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-88,52; 126,44</t>
+          <t>-94,35; 71,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,02</t>
+          <t>-1,83; 5,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,0</t>
+          <t>-4,11; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,0</t>
+          <t>-4,54; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 0,0</t>
+          <t>-16,67; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 0,0</t>
+          <t>-14,16; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 18,34</t>
+          <t>-7,0; 19,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,81</t>
+          <t>-4,09; 2,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 0,0</t>
+          <t>-6,32; 0,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 2,31</t>
+          <t>-4,69; 2,29</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,27</t>
+          <t>-2,0; 1,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,16</t>
+          <t>-2,1; 1,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 3,16</t>
+          <t>-1,28; 3,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,0</t>
+          <t>-4,56; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,0</t>
+          <t>-4,56; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,93</t>
+          <t>-1,84; 4,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,48</t>
+          <t>-1,96; 0,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,42</t>
+          <t>-1,96; 0,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,26</t>
+          <t>-0,65; 2,86</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1911,14 +1911,14 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-59,73; —</t>
+          <t>-72,81; 779,12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,84</t>
+          <t>-2,95; 1,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,19</t>
+          <t>-2,58; 2,19</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,15</t>
+          <t>-2,75; 2,27</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,73</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,37</t>
+          <t>-1,93; 1,35</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,45</t>
+          <t>-1,79; 1,46</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,64</t>
+          <t>-2,23; 1,77</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-72,35; 169,23</t>
+          <t>-70,03; 165,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-67,72; 234,94</t>
+          <t>-67,87; 177,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-76,04; 199,27</t>
+          <t>-70,21; 289,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-67,99; 166,79</t>
+          <t>-71,36; 197,27</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-70,18; 194,97</t>
+          <t>-68,42; 187,9</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-77,02; 174,33</t>
+          <t>-75,7; 185,16</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,31</t>
+          <t>-1,32; 2,09</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,75</t>
+          <t>-1,7; 0,97</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,12</t>
+          <t>-1,76; 1,07</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,95</t>
+          <t>-2,57; 0,95</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,31</t>
+          <t>-2,15; 1,32</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,42</t>
+          <t>-3,61; -0,42</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,18</t>
+          <t>-1,15; 1,4</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,65</t>
+          <t>-1,54; 0,66</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,56</t>
+          <t>-1,72; 0,65</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-66,43; 324,5</t>
+          <t>-69,91; 252,69</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-86,38; 132,04</t>
+          <t>-86,48; 188,99</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 211,54</t>
+          <t>-100,0; 170,59</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-73,44; 143,43</t>
+          <t>-66,58; 217,1</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-82,37; 108,7</t>
+          <t>-79,65; 106,18</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 133,44</t>
+          <t>-92,21; 150,89</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,02</t>
+          <t>-0,74; 1,01</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,55</t>
+          <t>-1,09; 0,55</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
+          <t>-1,51; 0,01</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
           <t>-1,48; 0,03</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 0,01</t>
-        </is>
-      </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,37</t>
+          <t>-1,27; 0,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,94</t>
+          <t>-1,06; 0,92</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,47</t>
+          <t>-0,8; 0,51</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,28</t>
+          <t>-0,93; 0,27</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,17</t>
+          <t>-1,14; 0,09</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 67,96</t>
+          <t>-31,5; 69,46</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 39,83</t>
+          <t>-47,65; 37,29</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-62,66; 5,69</t>
+          <t>-64,87; 4,48</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 37,17</t>
+          <t>-100,0; 69,9</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-86,14; 107,51</t>
+          <t>-82,97; 132,08</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-73,96; 179,89</t>
+          <t>-75,26; 193,9</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 36,61</t>
+          <t>-41,22; 41,85</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 23,35</t>
+          <t>-48,06; 25,16</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-58,09; 13,99</t>
+          <t>-59,56; 9,12</t>
         </is>
       </c>
     </row>
